--- a/combined_loss_values.xlsx
+++ b/combined_loss_values.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0001278497409102068</v>
+        <v>0.0001609179741573225</v>
       </c>
       <c r="B2" t="n">
         <v>50</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.692095491107376e-05</v>
+        <v>4.322231683911442e-05</v>
       </c>
       <c r="B3" t="n">
         <v>50</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.001043494206488302</v>
+        <v>1.401185123512605e-05</v>
       </c>
       <c r="B4" t="n">
         <v>50</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.653895885876703e-05</v>
+        <v>8.137937436584307e-06</v>
       </c>
       <c r="B5" t="n">
         <v>50</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0002567580004573174</v>
+        <v>0.004571538412176273</v>
       </c>
       <c r="B6" t="n">
         <v>50</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8583940949589954</v>
+        <v>1.666404110224098</v>
       </c>
       <c r="B7" t="n">
         <v>50</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.156627884808273</v>
+        <v>3.471471035243104</v>
       </c>
       <c r="B8" t="n">
         <v>50</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.90664712750594</v>
+        <v>0.9903890348279939</v>
       </c>
       <c r="B9" t="n">
         <v>50</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.508540668511812</v>
+        <v>4.571411049764508</v>
       </c>
       <c r="B10" t="n">
         <v>50</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.265392210000233</v>
+        <v>4.41512500802507</v>
       </c>
       <c r="B11" t="n">
         <v>50</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.04556076315217858</v>
+        <v>0.04536394028354333</v>
       </c>
       <c r="B12" t="n">
         <v>50</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0008137847676172968</v>
+        <v>0.0009515045282937996</v>
       </c>
       <c r="B13" t="n">
         <v>50</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0006558035741968061</v>
+        <v>1.410246189454799e-05</v>
       </c>
       <c r="B14" t="n">
         <v>50</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.900745974955165e-06</v>
+        <v>5.22118383334224e-06</v>
       </c>
       <c r="B15" t="n">
         <v>50</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0002018940333105661</v>
+        <v>3.448446166850225e-06</v>
       </c>
       <c r="B16" t="n">
         <v>50</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9.30123863412144e-06</v>
+        <v>0.0002408569665823113</v>
       </c>
       <c r="B17" t="n">
         <v>50</v>
@@ -757,7 +757,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>tanh_derivative</t>
+          <t>second_derivative_tanh</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -766,7 +766,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.417233670682334e-06</v>
+        <v>0.0001023365499352049</v>
       </c>
       <c r="B18" t="n">
         <v>50</v>
@@ -776,7 +776,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>tanh_derivative</t>
+          <t>second_derivative_tanh</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -785,7 +785,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.923102615911648e-06</v>
+        <v>0.000271982095396795</v>
       </c>
       <c r="B19" t="n">
         <v>50</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>tanh_derivative</t>
+          <t>second_derivative_tanh</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -804,7 +804,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.645827716971344e-08</v>
+        <v>5.630656396145662e-07</v>
       </c>
       <c r="B20" t="n">
         <v>50</v>
@@ -814,7 +814,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>tanh_derivative</t>
+          <t>second_derivative_tanh</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -823,7 +823,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.916436791458963e-09</v>
+        <v>1.869643945440799e-10</v>
       </c>
       <c r="B21" t="n">
         <v>50</v>
@@ -833,7 +833,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>tanh_derivative</t>
+          <t>second_derivative_tanh</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -842,7 +842,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.108452840015919</v>
+        <v>2.766084819329972</v>
       </c>
       <c r="B22" t="n">
         <v>50</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.061542217701921</v>
+        <v>2.82755557312514</v>
       </c>
       <c r="B23" t="n">
         <v>50</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.681994857839332</v>
+        <v>3.542041209686992</v>
       </c>
       <c r="B24" t="n">
         <v>50</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.57411791729912</v>
+        <v>2.629436520107218</v>
       </c>
       <c r="B25" t="n">
         <v>50</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.951000802793582</v>
+        <v>3.300751485798793</v>
       </c>
       <c r="B26" t="n">
         <v>50</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.04325581386133337</v>
+        <v>0.04881181050467538</v>
       </c>
       <c r="B27" t="n">
         <v>50</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.0009582635456741788</v>
+        <v>0.0009014007996065177</v>
       </c>
       <c r="B28" t="n">
         <v>50</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.045534492176406e-05</v>
+        <v>7.241877041541169e-06</v>
       </c>
       <c r="B29" t="n">
         <v>50</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.0003044640214393863</v>
+        <v>0.0006180009983162938</v>
       </c>
       <c r="B30" t="n">
         <v>50</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.427758603556493e-06</v>
+        <v>0.0001443054984390688</v>
       </c>
       <c r="B31" t="n">
         <v>50</v>
